--- a/gatling/prompt/bookstore/LoadTestScenario_Bookstore.xlsx
+++ b/gatling/prompt/bookstore/LoadTestScenario_Bookstore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\udemy_projects\learn_java_testing\gatling\prompt\bookstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D386BED6-222B-41A6-9AD3-61D09AD6E87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F1905-37CF-416A-8FEF-33870AEC75C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>/toSelect</t>
   </si>
@@ -113,15 +113,9 @@
     <t>email: "alice@gmail.com", password: "password", _csrf: ${csrfToken}</t>
   </si>
   <si>
-    <t>bookId: "2", _csrf: ${csrfToken}</t>
-  </si>
-  <si>
     <t>bookId: "5", _csrf: ${csrfToken}</t>
   </si>
   <si>
-    <t>bookId: "14", _csrf: ${csrfToken}</t>
-  </si>
-  <si>
     <t>_csrf: ${csrfToken}</t>
   </si>
   <si>
@@ -181,6 +175,34 @@
   </si>
   <si>
     <t>Logout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookId: "3", _csrf: ${csrfToken}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/removeBook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remove Book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status: 200, Title: "CartViewPage", Save CSRF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_csrf: ${csrfToken}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>removeBookIdList: "3", _csrf: ${csrfToken}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookId: "11", _csrf: ${csrfToken}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -586,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC815EE0-F415-4D3A-9BB0-5FB8F16A3CD5}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -605,7 +627,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -617,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -628,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -646,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -666,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -675,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -686,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -704,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -713,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -724,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -742,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -760,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -789,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -800,19 +822,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -820,19 +842,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -840,18 +862,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/gatling/prompt/bookstore/LoadTestScenario_Bookstore.xlsx
+++ b/gatling/prompt/bookstore/LoadTestScenario_Bookstore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\udemy_projects\learn_java_testing\gatling\prompt\bookstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F1905-37CF-416A-8FEF-33870AEC75C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069CF41-F170-4BC6-AB54-40D6FA8306F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
+    <workbookView xWindow="-32168" yWindow="1515" windowWidth="32281" windowHeight="17656" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="2" r:id="rId1"/>
@@ -36,173 +36,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+  <si>
+    <t>Parameters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To Search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/removeBook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remove Book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status: 200, Title: "CartViewPage", Save CSRF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Step</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Endpoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Checks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status: 200, Title: "TopPage", Save CSRF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/processLogin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email: "#{userId}", password: "#{password}", _csrf: #{sessionCsrfToken}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status: 200, Title: "BookSelectPage", Save CSRF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add Book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/addBook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookId: "2", _csrf: #{sessionCsrfToken}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To Select</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>/toSelect</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
-    <t>Checks</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Status: 200, Title: "TopPage", Save CSRF</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>/processLogin</t>
-  </si>
-  <si>
-    <t>Status: 200, Title: "BookSelectPage", Save CSRF</t>
-  </si>
-  <si>
-    <t>/addBook</t>
-  </si>
-  <si>
-    <t>Status: 200, Title: "CartViewPage", Save CSRF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookId: "5", _csrf: #{sessionCsrfToken}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Status: 200, Title: "BookSelectPage"</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/toSearch</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Status: 200, Title: "BookSearchPage"</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/search</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>categoryId: "2", keyword: "Cloud"</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/fix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_csrf: #{sessionCsrfToken}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Status: 200, Title: "BookOrderPage", Save CSRF</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/order1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settlementType: "1", _csrf: #{sessionCsrfToken}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Status: 200, Title: "OrderSuccessPage", Save CSRF</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/processLogout</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Status: 200, Title: "FinishPage"</t>
-  </si>
-  <si>
-    <t>email: "alice@gmail.com", password: "password", _csrf: ${csrfToken}</t>
-  </si>
-  <si>
-    <t>bookId: "5", _csrf: ${csrfToken}</t>
-  </si>
-  <si>
-    <t>_csrf: ${csrfToken}</t>
-  </si>
-  <si>
-    <t>settlementType: "1", _csrf: ${csrfToken}</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Open</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add Book 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>To Select 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add Book 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>To Select 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>To Search</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Search</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Add Book 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fix</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Order</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Logout</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bookId: "3", _csrf: ${csrfToken}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/removeBook</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Remove Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Status: 200, Title: "CartViewPage", Save CSRF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_csrf: ${csrfToken}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>removeBookIdList: "3", _csrf: ${csrfToken}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bookId: "11", _csrf: ${csrfToken}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>removeBookIdList: "3", _csrf: #{sessionCsrfToken}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookId: "11", _csrf: #{sessionCsrfToken}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -611,7 +619,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -627,22 +635,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -650,17 +658,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -668,19 +676,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -688,19 +696,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -708,17 +716,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -726,19 +734,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -746,17 +754,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -764,17 +772,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -782,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -802,19 +810,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -822,19 +830,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -842,19 +850,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -862,19 +870,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -882,19 +890,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/gatling/prompt/bookstore/LoadTestScenario_Bookstore.xlsx
+++ b/gatling/prompt/bookstore/LoadTestScenario_Bookstore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\udemy_projects\learn_java_testing\gatling\prompt\bookstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069CF41-F170-4BC6-AB54-40D6FA8306F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B66929-A8EC-4320-926A-B338B449F990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32168" yWindow="1515" windowWidth="32281" windowHeight="17656" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
   </bookViews>
@@ -38,14 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
-    <t>Parameters</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Open</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -86,22 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Step</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Endpoint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Checks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,6 +187,36 @@
   </si>
   <si>
     <t>bookId: "11", _csrf: #{sessionCsrfToken}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検証</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,38 +625,37 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.69921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="50.69921875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -658,17 +663,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -676,19 +681,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -696,19 +701,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -716,17 +721,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -734,19 +739,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -754,17 +759,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -772,17 +777,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -790,19 +795,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -810,19 +815,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -830,19 +835,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -850,19 +855,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -870,19 +875,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -890,19 +895,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
